--- a/arz2.xlsx
+++ b/arz2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University project\final\dara_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E664B1DD-6051-4515-B917-3ABEFC0D803A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23C2D86-2F98-49AD-9A3A-50D916741091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{975FB1ED-3952-4C2A-A2A2-2A3DA8595D59}"/>
   </bookViews>
@@ -504,76 +504,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.49694189999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.67769999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.32379518000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>2.12E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.33971291999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>4.3400000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2</c:v>
+                  <c:v>0.62326870000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>0.44117646999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2</c:v>
+                  <c:v>0.92465752999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2</c:v>
+                  <c:v>0.50462737000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2</c:v>
+                  <c:v>0.32346123999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2</c:v>
+                  <c:v>0.42210525999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2</c:v>
+                  <c:v>0.33333332999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2</c:v>
+                  <c:v>0.69667694999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2</c:v>
+                  <c:v>0.4777227</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2</c:v>
+                  <c:v>0.26255469999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2</c:v>
+                  <c:v>0.36659999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2</c:v>
+                  <c:v>0.37344324000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2</c:v>
+                  <c:v>0.79556212999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2</c:v>
+                  <c:v>0.59918930000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2</c:v>
+                  <c:v>0.46341462999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2</c:v>
+                  <c:v>0.42763158000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2</c:v>
+                  <c:v>0.52763157999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2</c:v>
+                  <c:v>0.14285713999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1666,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA2D939-CA57-4DB4-890E-6D8A8DECD40B}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1835,79 +1835,92 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0.49694189999999999</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.67769999999999997</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>0.32379518000000002</v>
       </c>
       <c r="E3">
-        <v>0.2</v>
+        <v>2.12E-2</v>
       </c>
       <c r="F3">
-        <v>0.2</v>
+        <v>0.33971291999999997</v>
       </c>
       <c r="G3">
-        <v>0.2</v>
+        <v>4.3400000000000001E-3</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>0.62326870000000001</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0.44117646999999999</v>
       </c>
       <c r="J3">
-        <v>0.2</v>
+        <v>0.92465752999999995</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>0.50462737000000002</v>
       </c>
       <c r="L3">
-        <v>0.2</v>
+        <v>0.32346123999999998</v>
       </c>
       <c r="M3">
-        <v>0.2</v>
+        <v>0.42210525999999998</v>
       </c>
       <c r="N3">
-        <v>0.2</v>
+        <v>0.33333332999999998</v>
       </c>
       <c r="O3">
-        <v>0.2</v>
+        <v>0.69667694999999996</v>
       </c>
       <c r="P3">
-        <v>0.2</v>
+        <v>0.4777227</v>
       </c>
       <c r="Q3">
-        <v>0.2</v>
+        <v>0.26255469999999997</v>
       </c>
       <c r="R3">
-        <v>0.2</v>
+        <v>0.36659999999999998</v>
       </c>
       <c r="S3">
-        <v>0.2</v>
+        <v>0.37344324000000001</v>
       </c>
       <c r="T3">
-        <v>0.2</v>
+        <v>0.79556212999999998</v>
       </c>
       <c r="U3">
-        <v>0.2</v>
+        <v>0.59918930000000004</v>
       </c>
       <c r="V3">
-        <v>0.2</v>
+        <v>0.46341462999999999</v>
       </c>
       <c r="W3">
-        <v>0.2</v>
+        <v>0.42763158000000001</v>
       </c>
       <c r="X3">
-        <v>0.2</v>
+        <v>0.52763157999999999</v>
       </c>
       <c r="Y3">
-        <v>0.2</v>
-      </c>
+        <v>0.14285713999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
